--- a/new wbs (1).xlsx
+++ b/new wbs (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="9405"/>
+    <workbookView windowWidth="19890" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>JYOTHY  INSTITUTE OF TECHNOLOGY</t>
   </si>
@@ -235,25 +235,78 @@
     <t>Finalizing the optimal route between the nodes</t>
   </si>
   <si>
-    <t>TECHNICAL SEMINAR</t>
+    <t>Writing the code for bus and mesh topology</t>
   </si>
   <si>
-    <t>Running the simulations for more number of iterations to achieve error free network</t>
+    <t>Calculation of optimal route</t>
   </si>
   <si>
-    <t>analysing the best topology with number of iterative methods</t>
+    <t>Coding for star and ring topology</t>
   </si>
   <si>
-    <t xml:space="preserve">50 iterations  </t>
+    <t>Combining and Compiling the code</t>
+  </si>
+  <si>
+    <t>Debugging the errors in the code</t>
+  </si>
+  <si>
+    <t>performing number of iterations for different topologies</t>
+  </si>
+  <si>
+    <t>Extending the star and ring topology</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ompiling the extended code</t>
+    </r>
+  </si>
+  <si>
+    <t>Extending the mesh and bus topology</t>
+  </si>
+  <si>
+    <t>Initiating the node failure</t>
+  </si>
+  <si>
+    <t>Build the path</t>
+  </si>
+  <si>
+    <t>Show the network</t>
+  </si>
+  <si>
+    <t>Adding the additional functions to the code</t>
+  </si>
+  <si>
+    <t>Compute topology</t>
+  </si>
+  <si>
+    <t>Generating the random IP address for each node</t>
+  </si>
+  <si>
+    <t>Implementing Routing Optimization Algorithm</t>
+  </si>
+  <si>
+    <t>Report Generation</t>
   </si>
   <si>
     <t>Documentation</t>
   </si>
   <si>
-    <t>Implementaion of records</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentaion </t>
+    <t>Presentation</t>
   </si>
 </sst>
 </file>
@@ -261,13 +314,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -401,39 +454,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,8 +503,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,6 +541,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -476,8 +549,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,9 +603,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,30 +612,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,23 +624,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,19 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,19 +700,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,13 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,13 +808,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,19 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,79 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,30 +978,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -964,10 +995,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -990,9 +1019,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,6 +1043,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1023,7 +1078,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,134 +1096,134 @@
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1295,7 +1350,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1304,13 +1359,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1322,27 +1377,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1366,10 +1421,10 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1394,23 +1449,11 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1418,16 +1461,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1746,8 +1819,8 @@
   <sheetPr/>
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="G129" sqref="C127:C133 E126 E129:E134 G129:G136"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1428571428571" defaultRowHeight="15" customHeight="1"/>
@@ -5182,7 +5255,7 @@
         <v>42746</v>
       </c>
       <c r="B108" s="16"/>
-      <c r="C108" s="81" t="s">
+      <c r="C108" s="48" t="s">
         <v>60</v>
       </c>
       <c r="D108" s="3"/>
@@ -5215,7 +5288,7 @@
         <v>42747</v>
       </c>
       <c r="B109" s="16"/>
-      <c r="C109" s="81"/>
+      <c r="C109" s="48"/>
       <c r="D109" s="3"/>
       <c r="E109" s="63"/>
       <c r="F109" s="79"/>
@@ -5248,7 +5321,7 @@
         <v>42748</v>
       </c>
       <c r="B110" s="16"/>
-      <c r="C110" s="81"/>
+      <c r="C110" s="48"/>
       <c r="D110" s="3"/>
       <c r="E110" s="63"/>
       <c r="F110" s="79"/>
@@ -5279,7 +5352,7 @@
         <v>42749</v>
       </c>
       <c r="B111" s="16"/>
-      <c r="C111" s="81"/>
+      <c r="C111" s="48"/>
       <c r="D111" s="3"/>
       <c r="E111" s="63"/>
       <c r="G111" s="80"/>
@@ -5309,9 +5382,9 @@
         <v>42750</v>
       </c>
       <c r="B112" s="16"/>
-      <c r="C112" s="81"/>
+      <c r="C112" s="48"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="82"/>
+      <c r="E112" s="81"/>
       <c r="F112" s="3"/>
       <c r="G112" s="80"/>
       <c r="H112" s="3"/>
@@ -5340,9 +5413,9 @@
         <v>42751</v>
       </c>
       <c r="B113" s="16"/>
-      <c r="C113" s="81"/>
+      <c r="C113" s="48"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="82"/>
+      <c r="E113" s="81"/>
       <c r="F113" s="3"/>
       <c r="G113" s="80"/>
       <c r="H113" s="3"/>
@@ -5371,9 +5444,9 @@
         <v>42752</v>
       </c>
       <c r="B114" s="16"/>
-      <c r="C114" s="83"/>
+      <c r="C114" s="82"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="84" t="s">
+      <c r="E114" s="63" t="s">
         <v>62</v>
       </c>
       <c r="F114" s="3"/>
@@ -5404,9 +5477,9 @@
         <v>42753</v>
       </c>
       <c r="B115" s="16"/>
-      <c r="C115" s="83"/>
+      <c r="C115" s="82"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="84"/>
+      <c r="E115" s="63"/>
       <c r="F115" s="3"/>
       <c r="G115" s="80"/>
       <c r="H115" s="3"/>
@@ -5435,13 +5508,13 @@
         <v>42754</v>
       </c>
       <c r="B116" s="16"/>
-      <c r="C116" s="85" t="s">
+      <c r="C116" s="80" t="s">
         <v>63</v>
       </c>
       <c r="D116" s="3"/>
-      <c r="E116" s="84"/>
+      <c r="E116" s="63"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="83"/>
+      <c r="G116" s="82"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -5468,11 +5541,11 @@
         <v>42755</v>
       </c>
       <c r="B117" s="16"/>
-      <c r="C117" s="85"/>
+      <c r="C117" s="80"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="84"/>
+      <c r="E117" s="63"/>
       <c r="F117" s="3"/>
-      <c r="G117" s="83"/>
+      <c r="G117" s="82"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -5499,11 +5572,11 @@
         <v>42756</v>
       </c>
       <c r="B118" s="16"/>
-      <c r="C118" s="85"/>
+      <c r="C118" s="80"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="84"/>
+      <c r="E118" s="63"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="86" t="s">
+      <c r="G118" s="63" t="s">
         <v>64</v>
       </c>
       <c r="H118" s="3"/>
@@ -5532,13 +5605,13 @@
         <v>42757</v>
       </c>
       <c r="B119" s="16"/>
-      <c r="C119" s="85"/>
+      <c r="C119" s="80"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="84" t="s">
+      <c r="E119" s="63" t="s">
         <v>62</v>
       </c>
       <c r="F119" s="3"/>
-      <c r="G119" s="86"/>
+      <c r="G119" s="63"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -5565,11 +5638,11 @@
         <v>42758</v>
       </c>
       <c r="B120" s="16"/>
-      <c r="C120" s="85"/>
+      <c r="C120" s="80"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="84"/>
+      <c r="E120" s="63"/>
       <c r="F120" s="3"/>
-      <c r="G120" s="86"/>
+      <c r="G120" s="63"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
@@ -5596,11 +5669,11 @@
         <v>42759</v>
       </c>
       <c r="B121" s="16"/>
-      <c r="C121" s="85"/>
+      <c r="C121" s="80"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="84"/>
+      <c r="E121" s="63"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="86"/>
+      <c r="G121" s="63"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
@@ -5627,11 +5700,11 @@
         <v>42760</v>
       </c>
       <c r="B122" s="16"/>
-      <c r="C122" s="85"/>
+      <c r="C122" s="80"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="84"/>
+      <c r="E122" s="63"/>
       <c r="F122" s="3"/>
-      <c r="G122" s="86"/>
+      <c r="G122" s="63"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
@@ -5658,11 +5731,11 @@
         <v>42761</v>
       </c>
       <c r="B123" s="16"/>
-      <c r="C123" s="85"/>
+      <c r="C123" s="80"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="84"/>
+      <c r="E123" s="63"/>
       <c r="F123" s="3"/>
-      <c r="G123" s="86"/>
+      <c r="G123" s="63"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
@@ -5691,9 +5764,9 @@
       <c r="B124" s="16"/>
       <c r="C124" s="79"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="82"/>
+      <c r="E124" s="81"/>
       <c r="F124" s="3"/>
-      <c r="G124" s="86"/>
+      <c r="G124" s="63"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
@@ -5722,9 +5795,9 @@
       <c r="B125" s="16"/>
       <c r="C125" s="79"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="87"/>
+      <c r="E125" s="83"/>
       <c r="F125" s="3"/>
-      <c r="G125" s="86"/>
+      <c r="G125" s="63"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -5753,11 +5826,11 @@
       <c r="B126" s="16"/>
       <c r="C126" s="79"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="86" t="s">
+      <c r="E126" s="63" t="s">
         <v>65</v>
       </c>
       <c r="F126" s="3"/>
-      <c r="G126" s="86"/>
+      <c r="G126" s="63"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
@@ -5784,11 +5857,11 @@
         <v>42765</v>
       </c>
       <c r="B127" s="16"/>
-      <c r="C127" s="85" t="s">
+      <c r="C127" s="80" t="s">
         <v>66</v>
       </c>
       <c r="D127" s="3"/>
-      <c r="E127" s="87"/>
+      <c r="E127" s="83"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -5817,9 +5890,9 @@
         <v>42766</v>
       </c>
       <c r="B128" s="16"/>
-      <c r="C128" s="85"/>
+      <c r="C128" s="80"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="88"/>
+      <c r="E128" s="84"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -5848,11 +5921,11 @@
         <v>42767</v>
       </c>
       <c r="B129" s="16"/>
-      <c r="C129" s="85"/>
-      <c r="E129" s="84" t="s">
+      <c r="C129" s="80"/>
+      <c r="E129" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="G129" s="84" t="s">
+      <c r="G129" s="63" t="s">
         <v>49</v>
       </c>
       <c r="H129" s="3"/>
@@ -5881,11 +5954,11 @@
         <v>42768</v>
       </c>
       <c r="B130" s="16"/>
-      <c r="C130" s="85"/>
+      <c r="C130" s="80"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="84"/>
+      <c r="E130" s="63"/>
       <c r="F130" s="3"/>
-      <c r="G130" s="84"/>
+      <c r="G130" s="63"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -5912,11 +5985,11 @@
         <v>42769</v>
       </c>
       <c r="B131" s="16"/>
-      <c r="C131" s="85"/>
+      <c r="C131" s="80"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="84"/>
+      <c r="E131" s="63"/>
       <c r="F131" s="3"/>
-      <c r="G131" s="84"/>
+      <c r="G131" s="63"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
@@ -5943,11 +6016,11 @@
         <v>42770</v>
       </c>
       <c r="B132" s="16"/>
-      <c r="C132" s="85"/>
+      <c r="C132" s="80"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="84"/>
+      <c r="E132" s="63"/>
       <c r="F132" s="3"/>
-      <c r="G132" s="84"/>
+      <c r="G132" s="63"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -5974,11 +6047,11 @@
         <v>42771</v>
       </c>
       <c r="B133" s="16"/>
-      <c r="C133" s="85"/>
+      <c r="C133" s="80"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="84"/>
+      <c r="E133" s="63"/>
       <c r="F133" s="3"/>
-      <c r="G133" s="84"/>
+      <c r="G133" s="63"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -6007,9 +6080,9 @@
       <c r="B134" s="16"/>
       <c r="C134" s="79"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="84"/>
+      <c r="E134" s="63"/>
       <c r="F134" s="3"/>
-      <c r="G134" s="84"/>
+      <c r="G134" s="63"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -6038,9 +6111,9 @@
       <c r="B135" s="16"/>
       <c r="C135" s="79"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="88"/>
+      <c r="E135" s="84"/>
       <c r="F135" s="3"/>
-      <c r="G135" s="84"/>
+      <c r="G135" s="63"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
@@ -6069,9 +6142,9 @@
       <c r="B136" s="16"/>
       <c r="C136" s="79"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="88"/>
+      <c r="E136" s="84"/>
       <c r="F136" s="3"/>
-      <c r="G136" s="84"/>
+      <c r="G136" s="63"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -6093,18 +6166,18 @@
       <c r="Z136" s="3"/>
       <c r="AA136" s="3"/>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" ht="15.75" spans="1:27">
       <c r="A137" s="16">
         <v>42775</v>
       </c>
       <c r="B137" s="16"/>
-      <c r="C137" s="89" t="s">
+      <c r="C137" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D137" s="89"/>
-      <c r="E137" s="89"/>
-      <c r="F137" s="89"/>
-      <c r="G137" s="89"/>
+      <c r="D137" s="79"/>
+      <c r="E137" s="79"/>
+      <c r="F137" s="79"/>
+      <c r="G137" s="79"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -6126,16 +6199,18 @@
       <c r="Z137" s="3"/>
       <c r="AA137" s="3"/>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" ht="15.75" spans="1:27">
       <c r="A138" s="16">
         <v>42776</v>
       </c>
       <c r="B138" s="16"/>
-      <c r="C138" s="89"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="89"/>
-      <c r="G138" s="89"/>
+      <c r="C138" s="85"/>
+      <c r="D138" s="86"/>
+      <c r="E138" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="F138" s="86"/>
+      <c r="G138" s="86"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -6157,16 +6232,18 @@
       <c r="Z138" s="3"/>
       <c r="AA138" s="3"/>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" ht="15.75" spans="1:27">
       <c r="A139" s="16">
         <v>42777</v>
       </c>
       <c r="B139" s="16"/>
-      <c r="C139" s="89"/>
-      <c r="D139" s="89"/>
-      <c r="E139" s="89"/>
-      <c r="F139" s="89"/>
-      <c r="G139" s="89"/>
+      <c r="C139" s="85"/>
+      <c r="D139" s="86"/>
+      <c r="E139" s="87"/>
+      <c r="F139" s="86"/>
+      <c r="G139" s="75" t="s">
+        <v>70</v>
+      </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -6188,16 +6265,16 @@
       <c r="Z139" s="3"/>
       <c r="AA139" s="3"/>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" ht="15.75" spans="1:27">
       <c r="A140" s="16">
         <v>42778</v>
       </c>
       <c r="B140" s="16"/>
-      <c r="C140" s="89"/>
-      <c r="D140" s="89"/>
-      <c r="E140" s="89"/>
-      <c r="F140" s="89"/>
-      <c r="G140" s="89"/>
+      <c r="C140" s="85"/>
+      <c r="D140" s="86"/>
+      <c r="E140" s="87"/>
+      <c r="F140" s="86"/>
+      <c r="G140" s="87"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -6219,16 +6296,16 @@
       <c r="Z140" s="3"/>
       <c r="AA140" s="3"/>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" ht="15.75" spans="1:27">
       <c r="A141" s="16">
         <v>42779</v>
       </c>
       <c r="B141" s="16"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
+      <c r="C141" s="79"/>
+      <c r="D141" s="79"/>
+      <c r="E141" s="87"/>
       <c r="F141" s="3"/>
-      <c r="G141" s="88"/>
+      <c r="G141" s="87"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -6257,11 +6334,9 @@
       <c r="B142" s="16"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="87" t="s">
-        <v>47</v>
-      </c>
+      <c r="E142" s="3"/>
       <c r="F142" s="3"/>
-      <c r="G142" s="88"/>
+      <c r="G142" s="84"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
@@ -6288,13 +6363,13 @@
         <v>42781</v>
       </c>
       <c r="B143" s="16"/>
-      <c r="C143" s="87" t="s">
-        <v>69</v>
+      <c r="C143" s="88" t="s">
+        <v>71</v>
       </c>
       <c r="D143" s="3"/>
-      <c r="E143" s="87"/>
+      <c r="E143" s="3"/>
       <c r="F143" s="3"/>
-      <c r="G143" s="88"/>
+      <c r="G143" s="84"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -6321,11 +6396,11 @@
         <v>42782</v>
       </c>
       <c r="B144" s="16"/>
-      <c r="C144" s="87"/>
+      <c r="C144" s="89"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="87"/>
+      <c r="E144" s="3"/>
       <c r="F144" s="3"/>
-      <c r="G144" s="88"/>
+      <c r="G144" s="84"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -6352,12 +6427,14 @@
         <v>42783</v>
       </c>
       <c r="B145" s="16"/>
-      <c r="C145" s="87"/>
+      <c r="C145" s="89"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="87"/>
+      <c r="E145" s="90" t="s">
+        <v>72</v>
+      </c>
       <c r="F145" s="3"/>
-      <c r="G145" s="87" t="s">
-        <v>70</v>
+      <c r="G145" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
@@ -6385,11 +6462,11 @@
         <v>42784</v>
       </c>
       <c r="B146" s="16"/>
-      <c r="C146" s="87"/>
+      <c r="C146" s="89"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="87"/>
+      <c r="E146" s="91"/>
       <c r="F146" s="3"/>
-      <c r="G146" s="87"/>
+      <c r="G146" s="63"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -6416,11 +6493,11 @@
         <v>42785</v>
       </c>
       <c r="B147" s="16"/>
-      <c r="C147" s="87"/>
+      <c r="C147" s="16"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="87"/>
+      <c r="E147" s="91"/>
       <c r="F147" s="3"/>
-      <c r="G147" s="87"/>
+      <c r="G147" s="63"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
@@ -6447,11 +6524,11 @@
         <v>42786</v>
       </c>
       <c r="B148" s="16"/>
-      <c r="C148" s="87"/>
+      <c r="C148" s="16"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="87"/>
+      <c r="E148" s="91"/>
       <c r="F148" s="3"/>
-      <c r="G148" s="87"/>
+      <c r="G148" s="63"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
@@ -6478,11 +6555,11 @@
         <v>42787</v>
       </c>
       <c r="B149" s="16"/>
-      <c r="C149" s="87"/>
+      <c r="C149" s="16"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="87"/>
+      <c r="E149" s="3"/>
       <c r="F149" s="3"/>
-      <c r="G149" s="87"/>
+      <c r="G149" s="63"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -6509,11 +6586,11 @@
         <v>42788</v>
       </c>
       <c r="B150" s="16"/>
-      <c r="C150" s="87"/>
+      <c r="C150" s="16"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="87"/>
+      <c r="E150" s="3"/>
       <c r="F150" s="3"/>
-      <c r="G150" s="87"/>
+      <c r="G150" s="63"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -6540,11 +6617,13 @@
         <v>42789</v>
       </c>
       <c r="B151" s="16"/>
-      <c r="C151" s="87"/>
+      <c r="C151" s="92" t="s">
+        <v>74</v>
+      </c>
       <c r="D151" s="3"/>
-      <c r="E151" s="82"/>
+      <c r="E151" s="81"/>
       <c r="F151" s="3"/>
-      <c r="G151" s="87"/>
+      <c r="G151" s="63"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -6571,11 +6650,11 @@
         <v>42790</v>
       </c>
       <c r="B152" s="16"/>
-      <c r="C152" s="87"/>
+      <c r="C152" s="93"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="82"/>
+      <c r="E152" s="81"/>
       <c r="F152" s="3"/>
-      <c r="G152" s="82"/>
+      <c r="G152" s="81"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -6597,18 +6676,18 @@
       <c r="Z152" s="3"/>
       <c r="AA152" s="3"/>
     </row>
-    <row r="153" ht="21" spans="1:27">
+    <row r="153" spans="1:27">
       <c r="A153" s="16">
         <v>42791</v>
       </c>
       <c r="B153" s="16"/>
-      <c r="C153" s="87"/>
+      <c r="C153" s="93"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="82"/>
+      <c r="E153" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="F153" s="3"/>
-      <c r="G153" s="87" t="s">
-        <v>71</v>
-      </c>
+      <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -6635,13 +6714,13 @@
         <v>42792</v>
       </c>
       <c r="B154" s="16"/>
-      <c r="C154" s="3"/>
+      <c r="C154" s="93"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="90" t="s">
-        <v>72</v>
+      <c r="E154" s="7"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="94" t="s">
+        <v>76</v>
       </c>
-      <c r="F154" s="3"/>
-      <c r="G154" s="87"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
@@ -6668,11 +6747,11 @@
         <v>42793</v>
       </c>
       <c r="B155" s="16"/>
-      <c r="C155" s="91"/>
+      <c r="C155" s="95"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="92"/>
+      <c r="E155" s="7"/>
       <c r="F155" s="3"/>
-      <c r="G155" s="87"/>
+      <c r="G155" s="7"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -6694,18 +6773,16 @@
       <c r="Z155" s="3"/>
       <c r="AA155" s="3"/>
     </row>
-    <row r="156" ht="21" spans="1:27">
+    <row r="156" spans="1:27">
       <c r="A156" s="16">
         <v>42794</v>
       </c>
       <c r="B156" s="16"/>
-      <c r="C156" s="90" t="s">
-        <v>73</v>
-      </c>
+      <c r="C156" s="16"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="92"/>
+      <c r="E156" s="7"/>
       <c r="F156" s="3"/>
-      <c r="G156" s="82"/>
+      <c r="G156" s="7"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -6732,11 +6809,11 @@
         <v>42795</v>
       </c>
       <c r="B157" s="16"/>
-      <c r="C157" s="90"/>
+      <c r="C157" s="96"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="92"/>
+      <c r="E157" s="97"/>
       <c r="F157" s="3"/>
-      <c r="G157" s="82"/>
+      <c r="G157" s="7"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -6763,13 +6840,13 @@
         <v>42796</v>
       </c>
       <c r="B158" s="16"/>
-      <c r="C158" s="90"/>
+      <c r="C158" s="97" t="s">
+        <v>77</v>
+      </c>
       <c r="D158" s="3"/>
-      <c r="E158" s="92"/>
+      <c r="E158" s="97"/>
       <c r="F158" s="3"/>
-      <c r="G158" s="87" t="s">
-        <v>71</v>
-      </c>
+      <c r="G158" s="83"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -6796,11 +6873,13 @@
         <v>42797</v>
       </c>
       <c r="B159" s="16"/>
-      <c r="C159" s="90"/>
+      <c r="C159" s="96"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="92"/>
+      <c r="E159" s="97" t="s">
+        <v>78</v>
+      </c>
       <c r="F159" s="3"/>
-      <c r="G159" s="87"/>
+      <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -6827,11 +6906,13 @@
         <v>42798</v>
       </c>
       <c r="B160" s="16"/>
-      <c r="C160" s="90"/>
+      <c r="C160" s="96"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="92"/>
+      <c r="E160" s="97"/>
       <c r="F160" s="3"/>
-      <c r="G160" s="87"/>
+      <c r="G160" s="97" t="s">
+        <v>79</v>
+      </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -6858,11 +6939,11 @@
         <v>42799</v>
       </c>
       <c r="B161" s="16"/>
-      <c r="C161" s="90"/>
+      <c r="C161" s="96"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="92"/>
+      <c r="E161" s="97"/>
       <c r="F161" s="3"/>
-      <c r="G161" s="82"/>
+      <c r="G161" s="97"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
@@ -6889,13 +6970,11 @@
         <v>42800</v>
       </c>
       <c r="B162" s="16"/>
-      <c r="C162" s="90"/>
+      <c r="C162" s="96"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="92"/>
+      <c r="E162" s="97"/>
       <c r="F162" s="3"/>
-      <c r="G162" s="90" t="s">
-        <v>74</v>
-      </c>
+      <c r="G162" s="97"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -6922,11 +7001,13 @@
         <v>42801</v>
       </c>
       <c r="B163" s="16"/>
-      <c r="C163" s="90"/>
+      <c r="C163" s="97" t="s">
+        <v>80</v>
+      </c>
       <c r="D163" s="3"/>
-      <c r="E163" s="92"/>
+      <c r="E163" s="97"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="90"/>
+      <c r="G163" s="96"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -6953,11 +7034,11 @@
         <v>42802</v>
       </c>
       <c r="B164" s="16"/>
-      <c r="C164" s="90"/>
+      <c r="C164" s="96"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="92"/>
+      <c r="E164" s="97"/>
       <c r="F164" s="3"/>
-      <c r="G164" s="90"/>
+      <c r="G164" s="96"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -6984,11 +7065,15 @@
         <v>42803</v>
       </c>
       <c r="B165" s="16"/>
-      <c r="C165" s="90"/>
+      <c r="C165" s="96"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="92"/>
+      <c r="E165" s="97" t="s">
+        <v>81</v>
+      </c>
       <c r="F165" s="3"/>
-      <c r="G165" s="90"/>
+      <c r="G165" s="97" t="s">
+        <v>82</v>
+      </c>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -7015,11 +7100,11 @@
         <v>42804</v>
       </c>
       <c r="B166" s="16"/>
-      <c r="C166" s="90"/>
+      <c r="C166" s="96"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="92"/>
+      <c r="E166" s="97"/>
       <c r="F166" s="3"/>
-      <c r="G166" s="90"/>
+      <c r="G166" s="96"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -7042,13 +7127,15 @@
       <c r="AA166" s="3"/>
     </row>
     <row r="167" spans="1:27">
-      <c r="A167" s="3"/>
+      <c r="A167" s="16">
+        <v>42805</v>
+      </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
+      <c r="E167" s="97"/>
       <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
+      <c r="G167" s="96"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -7071,7 +7158,9 @@
       <c r="AA167" s="3"/>
     </row>
     <row r="168" spans="1:27">
-      <c r="A168" s="3"/>
+      <c r="A168" s="16">
+        <v>42806</v>
+      </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -7100,13 +7189,17 @@
       <c r="AA168" s="3"/>
     </row>
     <row r="169" spans="1:27">
-      <c r="A169" s="3"/>
+      <c r="A169" s="16">
+        <v>42807</v>
+      </c>
       <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
+      <c r="C169" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -7129,13 +7222,15 @@
       <c r="AA169" s="3"/>
     </row>
     <row r="170" spans="1:27">
-      <c r="A170" s="3"/>
+      <c r="A170" s="16">
+        <v>42808</v>
+      </c>
       <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -7158,13 +7253,15 @@
       <c r="AA170" s="3"/>
     </row>
     <row r="171" spans="1:27">
-      <c r="A171" s="3"/>
+      <c r="A171" s="16">
+        <v>42809</v>
+      </c>
       <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
@@ -7187,7 +7284,9 @@
       <c r="AA171" s="3"/>
     </row>
     <row r="172" spans="1:27">
-      <c r="A172" s="3"/>
+      <c r="A172" s="16">
+        <v>42810</v>
+      </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -7216,7 +7315,9 @@
       <c r="AA172" s="3"/>
     </row>
     <row r="173" spans="1:27">
-      <c r="A173" s="3"/>
+      <c r="A173" s="16">
+        <v>42811</v>
+      </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -7245,7 +7346,9 @@
       <c r="AA173" s="3"/>
     </row>
     <row r="174" spans="1:27">
-      <c r="A174" s="3"/>
+      <c r="A174" s="16">
+        <v>42812</v>
+      </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -7274,13 +7377,21 @@
       <c r="AA174" s="3"/>
     </row>
     <row r="175" spans="1:27">
-      <c r="A175" s="3"/>
+      <c r="A175" s="16">
+        <v>42813</v>
+      </c>
       <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
+      <c r="C175" s="94" t="s">
+        <v>84</v>
+      </c>
       <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
+      <c r="E175" s="94" t="s">
+        <v>85</v>
+      </c>
       <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
+      <c r="G175" s="98" t="s">
+        <v>86</v>
+      </c>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
@@ -7303,13 +7414,15 @@
       <c r="AA175" s="3"/>
     </row>
     <row r="176" spans="1:27">
-      <c r="A176" s="3"/>
+      <c r="A176" s="16">
+        <v>42814</v>
+      </c>
       <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
+      <c r="C176" s="7"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
+      <c r="E176" s="7"/>
       <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
+      <c r="G176" s="7"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
@@ -7332,13 +7445,15 @@
       <c r="AA176" s="3"/>
     </row>
     <row r="177" spans="1:27">
-      <c r="A177" s="3"/>
+      <c r="A177" s="16">
+        <v>42815</v>
+      </c>
       <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
+      <c r="E177" s="7"/>
       <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
+      <c r="G177" s="7"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
@@ -7361,13 +7476,15 @@
       <c r="AA177" s="3"/>
     </row>
     <row r="178" spans="1:27">
-      <c r="A178" s="3"/>
+      <c r="A178" s="16">
+        <v>42816</v>
+      </c>
       <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
+      <c r="E178" s="7"/>
       <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
+      <c r="G178" s="7"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
@@ -7390,13 +7507,15 @@
       <c r="AA178" s="3"/>
     </row>
     <row r="179" spans="1:27">
-      <c r="A179" s="3"/>
+      <c r="A179" s="16">
+        <v>42817</v>
+      </c>
       <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
+      <c r="C179" s="7"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
+      <c r="E179" s="7"/>
       <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
+      <c r="G179" s="7"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
@@ -7419,11 +7538,13 @@
       <c r="AA179" s="3"/>
     </row>
     <row r="180" spans="1:27">
-      <c r="A180" s="3"/>
+      <c r="A180" s="16">
+        <v>42818</v>
+      </c>
       <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
+      <c r="E180" s="7"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -7448,9 +7569,11 @@
       <c r="AA180" s="3"/>
     </row>
     <row r="181" spans="1:27">
-      <c r="A181" s="3"/>
+      <c r="A181" s="16">
+        <v>42819</v>
+      </c>
       <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
+      <c r="C181" s="7"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
@@ -7477,7 +7600,9 @@
       <c r="AA181" s="3"/>
     </row>
     <row r="182" spans="1:27">
-      <c r="A182" s="3"/>
+      <c r="A182" s="16">
+        <v>42820</v>
+      </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -7506,7 +7631,9 @@
       <c r="AA182" s="3"/>
     </row>
     <row r="183" spans="1:27">
-      <c r="A183" s="3"/>
+      <c r="A183" s="16">
+        <v>42821</v>
+      </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -7535,7 +7662,9 @@
       <c r="AA183" s="3"/>
     </row>
     <row r="184" spans="1:27">
-      <c r="A184" s="3"/>
+      <c r="A184" s="16">
+        <v>42822</v>
+      </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -7564,7 +7693,9 @@
       <c r="AA184" s="3"/>
     </row>
     <row r="185" spans="1:27">
-      <c r="A185" s="3"/>
+      <c r="A185" s="16">
+        <v>42823</v>
+      </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -7593,7 +7724,9 @@
       <c r="AA185" s="3"/>
     </row>
     <row r="186" spans="1:27">
-      <c r="A186" s="3"/>
+      <c r="A186" s="16">
+        <v>42824</v>
+      </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -7622,7 +7755,9 @@
       <c r="AA186" s="3"/>
     </row>
     <row r="187" spans="1:27">
-      <c r="A187" s="3"/>
+      <c r="A187" s="16">
+        <v>42825</v>
+      </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -7651,7 +7786,9 @@
       <c r="AA187" s="3"/>
     </row>
     <row r="188" spans="1:27">
-      <c r="A188" s="3"/>
+      <c r="A188" s="16">
+        <v>42826</v>
+      </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -31286,7 +31423,7 @@
       <c r="AA1002" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="65">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -31305,8 +31442,12 @@
     <mergeCell ref="C108:C113"/>
     <mergeCell ref="C116:C123"/>
     <mergeCell ref="C127:C133"/>
-    <mergeCell ref="C143:C153"/>
-    <mergeCell ref="C156:C166"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="C175:C181"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="E18:E19"/>
@@ -31319,8 +31460,12 @@
     <mergeCell ref="E114:E118"/>
     <mergeCell ref="E119:E123"/>
     <mergeCell ref="E129:E134"/>
-    <mergeCell ref="E142:E150"/>
-    <mergeCell ref="E154:E166"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="E145:E148"/>
+    <mergeCell ref="E153:E156"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="E175:E180"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="G18:G19"/>
@@ -31333,15 +31478,17 @@
     <mergeCell ref="G109:G115"/>
     <mergeCell ref="G118:G126"/>
     <mergeCell ref="G129:G136"/>
+    <mergeCell ref="G139:G141"/>
     <mergeCell ref="G145:G151"/>
-    <mergeCell ref="G153:G155"/>
-    <mergeCell ref="G158:G160"/>
-    <mergeCell ref="G162:G166"/>
-    <mergeCell ref="C137:G140"/>
+    <mergeCell ref="G154:G157"/>
+    <mergeCell ref="G160:G162"/>
+    <mergeCell ref="G165:G167"/>
+    <mergeCell ref="G175:G179"/>
     <mergeCell ref="C50:G52"/>
     <mergeCell ref="C44:G47"/>
     <mergeCell ref="C53:G97"/>
     <mergeCell ref="C11:G13"/>
+    <mergeCell ref="C169:G171"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait"/>
